--- a/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
+++ b/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{1077C568-DEB2-41C2-A291-E3EF762EF6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB5D6F-9F64-4530-976C-4EA5EB334AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,16 +11,16 @@
     <sheet name="Planificateur de projet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificateur de projet'!$3:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Planificateur de projet'!$3:$5</definedName>
     <definedName name="période_sélectionnée">'Planificateur de projet'!$H$2</definedName>
-    <definedName name="PériodeDansPlan">'Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$C1,'Planificateur de projet'!$C1+'Planificateur de projet'!$D1-1)</definedName>
-    <definedName name="PériodeDansRéel">'Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1-1)</definedName>
+    <definedName name="PériodeDansPlan">'Planificateur de projet'!A$5=MEDIAN('Planificateur de projet'!A$5,'Planificateur de projet'!$C1,'Planificateur de projet'!$C1+'Planificateur de projet'!$D1-1)</definedName>
+    <definedName name="PériodeDansRéel">'Planificateur de projet'!A$5=MEDIAN('Planificateur de projet'!A$5,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1-1)</definedName>
     <definedName name="Plan">PériodeDansPlan*('Planificateur de projet'!$C1&gt;0)</definedName>
     <definedName name="PourcentageAccompli">PourcentageAccompliAuDelà*PériodeDansPlan</definedName>
-    <definedName name="PourcentageAccompliAuDelà">('Planificateur de projet'!A$4=MEDIAN('Planificateur de projet'!A$4,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1)*('Planificateur de projet'!$E1&gt;0))*(('Planificateur de projet'!A$4&lt;(INT('Planificateur de projet'!$E1+'Planificateur de projet'!$F1*'Planificateur de projet'!$G1)))+('Planificateur de projet'!A$4='Planificateur de projet'!$E1))*('Planificateur de projet'!$G1&gt;0)</definedName>
+    <definedName name="PourcentageAccompliAuDelà">('Planificateur de projet'!A$5=MEDIAN('Planificateur de projet'!A$5,'Planificateur de projet'!$E1,'Planificateur de projet'!$E1+'Planificateur de projet'!$F1)*('Planificateur de projet'!$E1&gt;0))*(('Planificateur de projet'!A$5&lt;(INT('Planificateur de projet'!$E1+'Planificateur de projet'!$F1*'Planificateur de projet'!$G1)))+('Planificateur de projet'!A$5='Planificateur de projet'!$E1))*('Planificateur de projet'!$G1&gt;0)</definedName>
     <definedName name="Réel">(PériodeDansRéel*('Planificateur de projet'!$E1&gt;0))*PériodeDansPlan</definedName>
     <definedName name="RéelAuDelà">PériodeDansRéel*('Planificateur de projet'!$E1&gt;0)</definedName>
-    <definedName name="TitreRégion..BO60">'Planificateur de projet'!$B$3:$B$4</definedName>
+    <definedName name="TitreRégion..BO60">'Planificateur de projet'!$B$3:$B$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="44">
   <si>
     <t>Planificateur de projet</t>
   </si>
@@ -196,12 +196,6 @@
     <t>Test general</t>
   </si>
   <si>
-    <t xml:space="preserve">Galery Frontend </t>
-  </si>
-  <si>
-    <t>Galery Backend</t>
-  </si>
-  <si>
     <t>Récherches</t>
   </si>
   <si>
@@ -242,13 +236,22 @@
   </si>
   <si>
     <t>Rendu</t>
+  </si>
+  <si>
+    <t>Meeting initial</t>
+  </si>
+  <si>
+    <t>Gallery frontend</t>
+  </si>
+  <si>
+    <t>Gallery Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -361,6 +364,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Corbel"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -564,7 +574,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,6 +632,30 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="12">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -631,9 +665,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="10" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -652,35 +692,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="8" xfId="6" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="2" applyBorder="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -704,7 +717,120 @@
     <cellStyle name="Titre 4" xfId="11" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Valeur de la période" xfId="13" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="9" tint="-0.24994659260841701"/>
+        </right>
+        <bottom style="thin">
+          <color theme="9" tint="0.59996337778862885"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="lightUp">
+          <fgColor theme="7"/>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -964,10 +1090,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1199,10 +1321,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CS31"/>
+  <dimension ref="B1:CS37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1228,15 +1350,15 @@
       <c r="G1" s="9"/>
     </row>
     <row r="2" spans="2:97" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>36</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
@@ -1246,66 +1368,66 @@
         <v>6</v>
       </c>
       <c r="J2" s="12"/>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-      <c r="O2" s="26"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="36"/>
       <c r="P2" s="13"/>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="26"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="36"/>
       <c r="U2" s="14"/>
-      <c r="V2" s="19" t="s">
+      <c r="V2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="38"/>
       <c r="Z2" s="15"/>
-      <c r="AA2" s="19" t="s">
+      <c r="AA2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="20"/>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20"/>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="38"/>
       <c r="AH2" s="16"/>
-      <c r="AI2" s="19" t="s">
+      <c r="AI2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
     </row>
     <row r="3" spans="2:97" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="33" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="17" t="s">
@@ -1331,796 +1453,915 @@
       <c r="Z3" s="7"/>
       <c r="AA3" s="7"/>
     </row>
-    <row r="4" spans="2:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:97" s="8" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="3">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="2:97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="3">
         <v>1</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I5" s="3">
         <v>2</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <v>3</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K5" s="3">
         <v>4</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L5" s="3">
         <v>5</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M5" s="3">
         <v>6</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N5" s="3">
         <v>7</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O5" s="3">
         <v>8</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P5" s="3">
         <v>9</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q5" s="3">
         <v>10</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R5" s="3">
         <v>11</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S5" s="3">
         <v>12</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T5" s="3">
         <v>13</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U5" s="3">
         <v>14</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V5" s="3">
         <v>15</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W5" s="3">
         <v>16</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X5" s="3">
         <v>17</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y5" s="3">
         <v>18</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z5" s="3">
         <v>19</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA5" s="3">
         <v>20</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB5" s="3">
         <v>21</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC5" s="3">
         <v>22</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD5" s="3">
         <v>23</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE5" s="3">
         <v>24</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF5" s="3">
         <v>25</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG5" s="3">
         <v>26</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH5" s="3">
         <v>27</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI5" s="3">
         <v>28</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ5" s="3">
         <v>29</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK5" s="3">
         <v>30</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL5" s="3">
         <v>31</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM5" s="3">
         <v>32</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN5" s="3">
         <v>33</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO5" s="3">
         <v>34</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP5" s="3">
         <v>35</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ5" s="3">
         <v>36</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR5" s="3">
         <v>37</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS5" s="3">
         <v>38</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT5" s="3">
         <v>39</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU5" s="3">
         <v>40</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV5" s="3">
         <v>41</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW5" s="3">
         <v>42</v>
       </c>
-      <c r="AX4" s="3">
+      <c r="AX5" s="3">
         <v>43</v>
       </c>
-      <c r="AY4" s="3">
+      <c r="AY5" s="3">
         <v>44</v>
       </c>
-      <c r="AZ4" s="3">
+      <c r="AZ5" s="3">
         <v>45</v>
       </c>
-      <c r="BA4" s="3">
+      <c r="BA5" s="3">
         <v>46</v>
       </c>
-      <c r="BB4" s="3">
+      <c r="BB5" s="3">
         <v>47</v>
       </c>
-      <c r="BC4" s="3">
+      <c r="BC5" s="3">
         <v>48</v>
       </c>
-      <c r="BD4" s="3">
+      <c r="BD5" s="3">
         <v>49</v>
       </c>
-      <c r="BE4" s="3">
+      <c r="BE5" s="3">
         <v>50</v>
       </c>
-      <c r="BF4" s="3">
+      <c r="BF5" s="3">
         <v>51</v>
       </c>
-      <c r="BG4" s="3">
+      <c r="BG5" s="3">
         <v>52</v>
       </c>
-      <c r="BH4" s="3">
+      <c r="BH5" s="3">
         <v>53</v>
       </c>
-      <c r="BI4" s="3">
+      <c r="BI5" s="3">
         <v>54</v>
       </c>
-      <c r="BJ4" s="3">
+      <c r="BJ5" s="3">
         <v>55</v>
       </c>
-      <c r="BK4" s="3">
+      <c r="BK5" s="3">
         <v>56</v>
       </c>
-      <c r="BL4" s="3">
+      <c r="BL5" s="3">
         <v>57</v>
       </c>
-      <c r="BM4" s="3">
+      <c r="BM5" s="3">
         <v>58</v>
       </c>
-      <c r="BN4" s="3">
+      <c r="BN5" s="3">
         <v>59</v>
       </c>
-      <c r="BO4" s="3">
+      <c r="BO5" s="3">
         <v>60</v>
       </c>
-      <c r="BP4" s="3">
+      <c r="BP5" s="3">
         <v>61</v>
       </c>
-      <c r="BQ4" s="3">
+      <c r="BQ5" s="3">
         <v>62</v>
       </c>
-      <c r="BR4" s="3">
+      <c r="BR5" s="3">
         <v>63</v>
       </c>
-      <c r="BS4" s="3">
+      <c r="BS5" s="3">
         <v>64</v>
       </c>
-      <c r="BT4" s="3">
+      <c r="BT5" s="3">
         <v>65</v>
       </c>
-      <c r="BU4" s="3">
+      <c r="BU5" s="3">
         <v>66</v>
       </c>
-      <c r="BV4" s="3">
+      <c r="BV5" s="3">
         <v>67</v>
       </c>
-      <c r="BW4" s="3">
+      <c r="BW5" s="3">
         <v>68</v>
       </c>
-      <c r="BX4" s="3">
+      <c r="BX5" s="3">
         <v>69</v>
       </c>
-      <c r="BY4" s="3">
+      <c r="BY5" s="3">
         <v>70</v>
       </c>
-      <c r="BZ4" s="3">
+      <c r="BZ5" s="3">
         <v>71</v>
       </c>
-      <c r="CA4" s="3">
+      <c r="CA5" s="3">
         <v>72</v>
       </c>
-      <c r="CB4" s="3">
+      <c r="CB5" s="3">
         <v>73</v>
       </c>
-      <c r="CC4" s="3">
+      <c r="CC5" s="3">
         <v>74</v>
       </c>
-      <c r="CD4" s="3">
+      <c r="CD5" s="3">
         <v>75</v>
       </c>
-      <c r="CE4" s="3">
+      <c r="CE5" s="3">
         <v>76</v>
       </c>
-      <c r="CF4" s="3">
+      <c r="CF5" s="3">
         <v>77</v>
       </c>
-      <c r="CG4" s="3">
+      <c r="CG5" s="3">
         <v>78</v>
       </c>
-      <c r="CH4" s="3">
+      <c r="CH5" s="3">
         <v>79</v>
       </c>
-      <c r="CI4" s="3">
+      <c r="CI5" s="3">
         <v>80</v>
       </c>
-      <c r="CJ4" s="3">
+      <c r="CJ5" s="3">
         <v>81</v>
       </c>
-      <c r="CK4" s="3">
+      <c r="CK5" s="3">
         <v>82</v>
       </c>
-      <c r="CL4" s="3">
+      <c r="CL5" s="3">
         <v>83</v>
       </c>
-      <c r="CM4" s="3">
+      <c r="CM5" s="3">
         <v>84</v>
       </c>
-      <c r="CN4" s="3">
+      <c r="CN5" s="3">
         <v>85</v>
       </c>
-      <c r="CO4" s="3">
+      <c r="CO5" s="3">
         <v>86</v>
       </c>
-      <c r="CP4" s="3">
+      <c r="CP5" s="3">
         <v>87</v>
       </c>
-      <c r="CQ4" s="3">
+      <c r="CQ5" s="3">
         <v>88</v>
       </c>
-      <c r="CR4" s="3">
+      <c r="CR5" s="3">
         <v>89</v>
       </c>
-      <c r="CS4" s="3">
+      <c r="CS5" s="3">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="6" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1</v>
+      </c>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="32">
+      <c r="C7" s="20">
+        <v>2</v>
+      </c>
+      <c r="D7" s="20">
+        <v>5</v>
+      </c>
+      <c r="E7" s="20">
+        <v>2</v>
+      </c>
+      <c r="F7" s="20">
+        <v>5</v>
+      </c>
+      <c r="G7" s="21">
         <v>1</v>
       </c>
-      <c r="D5" s="32">
-        <v>6</v>
-      </c>
-      <c r="E5" s="32">
+    </row>
+    <row r="8" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="20">
+        <v>2</v>
+      </c>
+      <c r="D8" s="20">
+        <v>5</v>
+      </c>
+      <c r="E8" s="20">
+        <v>2</v>
+      </c>
+      <c r="F8" s="20">
+        <v>5</v>
+      </c>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="F5" s="32">
-        <v>6</v>
-      </c>
-      <c r="G5" s="33">
+    </row>
+    <row r="9" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="20">
+        <f>D8+C8</f>
+        <v>7</v>
+      </c>
+      <c r="D9" s="20">
+        <v>2</v>
+      </c>
+      <c r="E9" s="20">
+        <v>7</v>
+      </c>
+      <c r="F9" s="20">
+        <v>2</v>
+      </c>
+      <c r="G9" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="32">
+    <row r="10" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="20">
+        <f t="shared" ref="C10:C32" si="0">D9+C9</f>
+        <v>9</v>
+      </c>
+      <c r="D10" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="32">
-        <v>5</v>
-      </c>
-      <c r="E6" s="32">
-        <v>2</v>
-      </c>
-      <c r="F6" s="32">
-        <v>5</v>
-      </c>
-      <c r="G6" s="33">
+      <c r="E10" s="20">
+        <v>11</v>
+      </c>
+      <c r="F10" s="20">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="32">
-        <f>D6+C6</f>
-        <v>7</v>
-      </c>
-      <c r="D7" s="32">
-        <v>2</v>
-      </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="32">
-        <f t="shared" ref="C8:C30" si="0">D7+C7</f>
-        <v>9</v>
-      </c>
-      <c r="D8" s="32">
-        <v>2</v>
-      </c>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="31" t="s">
+      <c r="G10" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D11" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="31" t="s">
+      <c r="E11" s="20">
+        <v>12</v>
+      </c>
+      <c r="F11" s="20">
+        <v>3</v>
+      </c>
+      <c r="G11" s="21">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="32">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D12" s="20">
         <v>2</v>
       </c>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="31" t="s">
+      <c r="E12" s="20">
+        <v>15</v>
+      </c>
+      <c r="F12" s="20">
+        <v>1</v>
+      </c>
+      <c r="G12" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="32">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D13" s="20">
         <v>2</v>
       </c>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="31" t="s">
+      <c r="E13" s="20">
+        <v>16</v>
+      </c>
+      <c r="F13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="32">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D14" s="20">
         <v>3</v>
       </c>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="31" t="s">
+      <c r="E14" s="20">
+        <v>17</v>
+      </c>
+      <c r="F14" s="20">
+        <v>3</v>
+      </c>
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="32">
-        <f t="shared" si="0"/>
+      <c r="C15" s="20">
+        <f>D14+C14</f>
         <v>20</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D15" s="20">
         <v>3</v>
       </c>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="32">
-        <f t="shared" si="0"/>
+      <c r="E15" s="20">
+        <v>20</v>
+      </c>
+      <c r="F15" s="20">
+        <v>7</v>
+      </c>
+      <c r="G15" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="20">
+        <f>D15+C15</f>
         <v>23</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D16" s="20">
         <v>5</v>
       </c>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34" t="s">
+      <c r="E16" s="20">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20">
+        <v>3</v>
+      </c>
+      <c r="G16" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="20">
+        <f>D16+C16</f>
         <v>28</v>
       </c>
-      <c r="C15" s="32">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="D15" s="32">
+      <c r="D17" s="20">
         <v>5</v>
       </c>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="32">
+      <c r="E17" s="20">
+        <v>25</v>
+      </c>
+      <c r="F17" s="20">
+        <v>5</v>
+      </c>
+      <c r="G17" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="20">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D18" s="20">
         <v>3</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="32">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D19" s="20">
         <v>3</v>
       </c>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33">
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
+    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="20">
+        <f>D19+C19</f>
         <v>39</v>
       </c>
-      <c r="C18" s="32">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D18" s="32">
+      <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33">
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="32">
+    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="20">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D21" s="20">
         <v>3</v>
       </c>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33">
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="32">
+    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="20">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D22" s="20">
         <v>3</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33">
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="32">
+    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="20">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D23" s="20">
         <v>3</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="33">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="32">
+    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D24" s="20">
         <v>3</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="33">
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="36" t="s">
+    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="32">
+      <c r="C25" s="20">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D25" s="20">
         <v>7</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="33">
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="31" t="s">
+    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="32">
+      <c r="C26" s="20">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D26" s="20">
         <v>7</v>
       </c>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="31" t="s">
+    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="32">
+      <c r="C27" s="20">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D27" s="20">
         <v>7</v>
       </c>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="32">
+    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="20">
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="33">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="32">
+      <c r="C29" s="20">
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="33">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="32">
+    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="20">
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D30" s="20">
         <v>1</v>
       </c>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="33">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="32">
+      <c r="C31" s="20">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D31" s="20">
         <v>3</v>
       </c>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="33">
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="32">
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="20">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D32" s="20">
         <v>7</v>
       </c>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="33">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="32">
-        <f>D30+C30</f>
+    <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" s="20">
+        <f>D32+C32</f>
         <v>88</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D33" s="20">
         <v>2</v>
       </c>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33">
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21">
         <v>0</v>
       </c>
+    </row>
+    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="39"/>
+    </row>
+    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="39"/>
+    </row>
+    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="39"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="11">
     <mergeCell ref="AI2:AP2"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="G3:G5"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
   </mergeCells>
-  <conditionalFormatting sqref="H5:CS30">
-    <cfRule type="expression" dxfId="16" priority="9">
+  <conditionalFormatting sqref="H7:CS32">
+    <cfRule type="expression" dxfId="24" priority="17">
       <formula>PourcentageAccompli</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="23" priority="19">
       <formula>PourcentageAccompliAuDelà</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="22" priority="20">
       <formula>Réel</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>RéelAuDelà</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
-      <formula>H$4=période_sélectionnée</formula>
+    <cfRule type="expression" dxfId="19" priority="23">
+      <formula>H$5=période_sélectionnée</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="19">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="20">
+    <cfRule type="expression" dxfId="17" priority="28">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:CS4">
-    <cfRule type="expression" dxfId="8" priority="16">
-      <formula>H$4=période_sélectionnée</formula>
+  <conditionalFormatting sqref="H5:CS5">
+    <cfRule type="expression" dxfId="16" priority="24">
+      <formula>H$5=période_sélectionnée</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31:CS31">
+  <conditionalFormatting sqref="H33:CS33">
+    <cfRule type="expression" dxfId="15" priority="9">
+      <formula>PourcentageAccompli</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="10">
+      <formula>PourcentageAccompliAuDelà</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>Réel</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="12">
+      <formula>RéelAuDelà</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="11" priority="13">
+      <formula>Plan</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>H$5=période_sélectionnée</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15">
+      <formula>MOD(COLUMN(),2)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="16">
+      <formula>MOD(COLUMN(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:CS6">
     <cfRule type="expression" dxfId="7" priority="1">
       <formula>PourcentageAccompli</formula>
     </cfRule>
@@ -2137,7 +2378,7 @@
       <formula>Plan</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="6">
-      <formula>H$4=période_sélectionnée</formula>
+      <formula>H$5=période_sélectionnée</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="7">
       <formula>MOD(COLUMN(),2)</formula>
@@ -2157,13 +2398,13 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli" sqref="U2" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique la durée réelle au-delà du plan" sqref="Z2" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cette cellule de légende indique le pourcentage du projet accompli au-delà du plan" sqref="AH2" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B4" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C4" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D4" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E4" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F4" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="G3:G4" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Les périodes sont représentées de 1 à 60, de la cellule H4 à la cellule BO4 " sqref="H3:H4" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez l’activité dans la colonne B, en commençant par la cellule B5_x000a_" sqref="B3:B5" xr:uid="{00000000-0002-0000-0000-000008000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début du plan dans la colonne C, en commençant par la cellule C5" sqref="C3:C5" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée du plan dans la colonne D, en commençant par la cellule D5" sqref="D3:D5" xr:uid="{00000000-0002-0000-0000-00000A000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la période de début réelle dans la colonne E, en commençant par la cellule E5" sqref="E3:E5" xr:uid="{00000000-0002-0000-0000-00000B000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez la durée réelle dans la colonne F, en commençant par la cellule F5" sqref="F3:F5" xr:uid="{00000000-0002-0000-0000-00000C000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Entrez le pourcentage d’achèvement du projet dans la colonne G, en commençant par la cellule G5" sqref="G3:G5" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Titre du projet. Entrez un nouveau titre dans cette cellule. Mettez en surbrillance une période dans H2. La légende du graphique se trouve dans les cellules J2 à AI2" sqref="B1" xr:uid="{00000000-0002-0000-0000-00000E000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Sélectionnez la période à mettre en surbrillance dans H2. Une légende de graphique se trouve dans les cellules J2 à AI2" sqref="B2:F2" xr:uid="{00000000-0002-0000-0000-00000F000000}"/>
   </dataValidations>

--- a/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
+++ b/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB5D6F-9F64-4530-976C-4EA5EB334AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CDDCE5-CEA9-40D8-B9DC-CFF8E86A8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,6 +196,12 @@
     <t>Test general</t>
   </si>
   <si>
+    <t xml:space="preserve">Galery Frontend </t>
+  </si>
+  <si>
+    <t>Galery Backend</t>
+  </si>
+  <si>
     <t>Récherches</t>
   </si>
   <si>
@@ -239,19 +245,13 @@
   </si>
   <si>
     <t>Meeting initial</t>
-  </si>
-  <si>
-    <t>Gallery frontend</t>
-  </si>
-  <si>
-    <t>Gallery Backend</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -364,13 +364,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <name val="Corbel"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -574,7 +567,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -691,9 +684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1321,10 +1311,10 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:CS37"/>
+  <dimension ref="B1:CS33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="AH16" sqref="AH16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1351,21 +1341,21 @@
     </row>
     <row r="2" spans="2:97" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" s="18"/>
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="34" t="s">
@@ -1761,7 +1751,7 @@
     </row>
     <row r="6" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -1821,7 +1811,7 @@
     </row>
     <row r="9" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C9" s="20">
         <f>D8+C8</f>
@@ -1950,7 +1940,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="20">
-        <f>D14+C14</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="D15" s="20">
@@ -1960,57 +1950,55 @@
         <v>20</v>
       </c>
       <c r="F15" s="20">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
-        <v>33</v>
+    <row r="16" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
+        <v>27</v>
       </c>
       <c r="C16" s="20">
-        <f>D15+C15</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="D16" s="20">
         <v>5</v>
       </c>
       <c r="E16" s="20">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16" s="21">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="24" t="s">
-        <v>36</v>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="C17" s="20">
-        <f>D16+C16</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="D17" s="20">
         <v>5</v>
       </c>
       <c r="E17" s="20">
-        <v>25</v>
-      </c>
-      <c r="F17" s="20">
-        <v>5</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="F17" s="20"/>
       <c r="G17" s="21">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C18" s="20">
         <f t="shared" si="0"/>
@@ -2019,15 +2007,19 @@
       <c r="D18" s="20">
         <v>3</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
+      <c r="E18" s="20">
+        <v>30</v>
+      </c>
+      <c r="F18" s="20">
+        <v>3</v>
+      </c>
       <c r="G18" s="21">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="20">
         <f t="shared" si="0"/>
@@ -2036,32 +2028,40 @@
       <c r="D19" s="20">
         <v>3</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
+      <c r="E19" s="20">
+        <v>33</v>
+      </c>
+      <c r="F19" s="20">
+        <v>5</v>
+      </c>
       <c r="G19" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C20" s="20">
-        <f>D19+C19</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D20" s="20">
         <v>2</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
+      <c r="E20" s="20">
+        <v>39</v>
+      </c>
+      <c r="F20" s="20">
+        <v>2</v>
+      </c>
       <c r="G20" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C21" s="20">
         <f t="shared" si="0"/>
@@ -2073,12 +2073,12 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="21">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C22" s="20">
         <f t="shared" si="0"/>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="20">
         <f t="shared" si="0"/>
@@ -2112,7 +2112,7 @@
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24" s="20">
         <f t="shared" si="0"/>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="20">
         <f t="shared" si="0"/>
@@ -2214,7 +2214,7 @@
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C30" s="20">
         <f t="shared" si="0"/>
@@ -2223,10 +2223,14 @@
       <c r="D30" s="20">
         <v>1</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
+      <c r="E30" s="20">
+        <v>42</v>
+      </c>
+      <c r="F30" s="20">
+        <v>1</v>
+      </c>
       <c r="G30" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2248,7 +2252,7 @@
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="23" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" s="20">
         <f t="shared" si="0"/>
@@ -2265,7 +2269,7 @@
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C33" s="20">
         <f>D32+C32</f>
@@ -2279,15 +2283,6 @@
       <c r="G33" s="21">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="39"/>
-    </row>
-    <row r="36" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="39"/>
-    </row>
-    <row r="37" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="39"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -2410,7 +2405,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="44" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
+++ b/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94CDDCE5-CEA9-40D8-B9DC-CFF8E86A8A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88EC40-49B3-4492-80F2-011BC55C836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
   </sheetPr>
   <dimension ref="B1:CS33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AH16" sqref="AH16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1869,7 +1869,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="21">
-        <v>0.66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:97" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,9 +1991,11 @@
       <c r="E17" s="20">
         <v>41</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="20">
+        <v>9</v>
+      </c>
       <c r="G17" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2014,7 +2016,7 @@
         <v>3</v>
       </c>
       <c r="G18" s="21">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2070,10 +2072,14 @@
       <c r="D21" s="20">
         <v>3</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
+      <c r="E21" s="20">
+        <v>50</v>
+      </c>
+      <c r="F21" s="20">
+        <v>5</v>
+      </c>
       <c r="G21" s="21">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2087,10 +2093,14 @@
       <c r="D22" s="20">
         <v>3</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
+      <c r="E22" s="20">
+        <v>55</v>
+      </c>
+      <c r="F22" s="20">
+        <v>5</v>
+      </c>
       <c r="G22" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2104,10 +2114,14 @@
       <c r="D23" s="20">
         <v>3</v>
       </c>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
+      <c r="E23" s="20">
+        <v>60</v>
+      </c>
+      <c r="F23" s="20">
+        <v>3</v>
+      </c>
       <c r="G23" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2121,10 +2135,14 @@
       <c r="D24" s="20">
         <v>3</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
+      <c r="E24" s="20">
+        <v>63</v>
+      </c>
+      <c r="F24" s="20">
+        <v>5</v>
+      </c>
       <c r="G24" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2262,9 +2280,11 @@
         <v>7</v>
       </c>
       <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="20">
+        <v>3</v>
+      </c>
       <c r="G32" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
+++ b/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B88EC40-49B3-4492-80F2-011BC55C836D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D484253-EA15-4F78-B891-498E3588ECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
   </sheetPr>
   <dimension ref="B1:CS33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="34" t="s">
@@ -2156,10 +2156,14 @@
       <c r="D25" s="20">
         <v>7</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
+      <c r="E25" s="20">
+        <v>68</v>
+      </c>
+      <c r="F25" s="20">
+        <v>1</v>
+      </c>
       <c r="G25" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2167,16 +2171,20 @@
         <v>23</v>
       </c>
       <c r="C26" s="20">
-        <f t="shared" si="0"/>
+        <f>D25+C25</f>
         <v>60</v>
       </c>
       <c r="D26" s="20">
         <v>7</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
+      <c r="E26" s="20">
+        <v>69</v>
+      </c>
+      <c r="F26" s="20">
+        <v>1</v>
+      </c>
       <c r="G26" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2184,16 +2192,20 @@
         <v>24</v>
       </c>
       <c r="C27" s="20">
-        <f t="shared" si="0"/>
+        <f>D26+C26</f>
         <v>67</v>
       </c>
       <c r="D27" s="20">
         <v>7</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
+      <c r="E27" s="20">
+        <v>70</v>
+      </c>
+      <c r="F27" s="20">
+        <v>1</v>
+      </c>
       <c r="G27" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2201,7 +2213,7 @@
         <v>40</v>
       </c>
       <c r="C28" s="20">
-        <f t="shared" si="0"/>
+        <f>D27+C27</f>
         <v>74</v>
       </c>
       <c r="D28" s="20">
@@ -2284,7 +2296,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="21">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
+++ b/Documentation/Journal&Plan/PlanDeTPI-ShansheGundisvhili.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D484253-EA15-4F78-B891-498E3588ECE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC13AF72-C0E0-413B-87B3-45334C8C12AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1313,8 +1313,8 @@
   </sheetPr>
   <dimension ref="B1:CS33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1355,7 +1355,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="11">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="34" t="s">
@@ -2219,10 +2219,14 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
+      <c r="E28" s="20">
+        <v>73</v>
+      </c>
+      <c r="F28" s="20">
+        <v>2</v>
+      </c>
       <c r="G28" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2236,10 +2240,14 @@
       <c r="D29" s="20">
         <v>1</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
+      <c r="E29" s="20">
+        <v>75</v>
+      </c>
+      <c r="F29" s="20">
+        <v>3</v>
+      </c>
       <c r="G29" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,10 +2282,14 @@
       <c r="D31" s="20">
         <v>3</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
+      <c r="E31" s="20">
+        <v>78</v>
+      </c>
+      <c r="F31" s="20">
+        <v>3</v>
+      </c>
       <c r="G31" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2291,12 +2303,14 @@
       <c r="D32" s="20">
         <v>7</v>
       </c>
-      <c r="E32" s="20"/>
+      <c r="E32" s="20">
+        <v>81</v>
+      </c>
       <c r="F32" s="20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G32" s="21">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -2310,10 +2324,14 @@
       <c r="D33" s="20">
         <v>2</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="E33" s="20">
+        <v>90</v>
+      </c>
+      <c r="F33" s="20">
+        <v>2</v>
+      </c>
       <c r="G33" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
